--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pth2-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pth2-Pth2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>Pth2r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,7 +534,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H2">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.110174</v>
+        <v>0.1534146666666667</v>
       </c>
       <c r="N2">
-        <v>0.330522</v>
+        <v>0.460244</v>
       </c>
       <c r="O2">
-        <v>0.1084815076777148</v>
+        <v>0.8701728646218362</v>
       </c>
       <c r="P2">
-        <v>0.1227000378655698</v>
+        <v>0.8701728646218362</v>
       </c>
       <c r="Q2">
-        <v>0.02864483602866667</v>
+        <v>0.03988725081288889</v>
       </c>
       <c r="R2">
-        <v>0.257803524258</v>
+        <v>0.358985257316</v>
       </c>
       <c r="S2">
-        <v>0.1084815076777148</v>
+        <v>0.8701728646218362</v>
       </c>
       <c r="T2">
-        <v>0.1227000378655698</v>
+        <v>0.8701728646218362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,7 +596,7 @@
         <v>0.2599963333333333</v>
       </c>
       <c r="H3">
-        <v>0.7799889999999999</v>
+        <v>0.779989</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,214 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1534146666666667</v>
+        <v>0.022889</v>
       </c>
       <c r="N3">
-        <v>0.460244</v>
+        <v>0.06866700000000001</v>
       </c>
       <c r="O3">
-        <v>0.1510579114843254</v>
+        <v>0.1298271353781638</v>
       </c>
       <c r="P3">
-        <v>0.1708568755707678</v>
+        <v>0.1298271353781638</v>
       </c>
       <c r="Q3">
-        <v>0.03988725081288889</v>
+        <v>0.005951056073666667</v>
       </c>
       <c r="R3">
-        <v>0.358985257316</v>
+        <v>0.05355950466300001</v>
       </c>
       <c r="S3">
-        <v>0.1510579114843254</v>
+        <v>0.1298271353781638</v>
       </c>
       <c r="T3">
-        <v>0.1708568755707678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.2599963333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.7799889999999999</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.2115633333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.63469</v>
-      </c>
-      <c r="O4">
-        <v>0.2083132986850159</v>
-      </c>
-      <c r="P4">
-        <v>0.2356166519411673</v>
-      </c>
-      <c r="Q4">
-        <v>0.05500569093444444</v>
-      </c>
-      <c r="R4">
-        <v>0.4950512184099999</v>
-      </c>
-      <c r="S4">
-        <v>0.2083132986850159</v>
-      </c>
-      <c r="T4">
-        <v>0.2356166519411673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2599963333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.7799889999999999</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.353065</v>
-      </c>
-      <c r="N5">
-        <v>0.70613</v>
-      </c>
-      <c r="O5">
-        <v>0.3476412176033583</v>
-      </c>
-      <c r="P5">
-        <v>0.2621374000460326</v>
-      </c>
-      <c r="Q5">
-        <v>0.09179560542833334</v>
-      </c>
-      <c r="R5">
-        <v>0.55077363257</v>
-      </c>
-      <c r="S5">
-        <v>0.3476412176033583</v>
-      </c>
-      <c r="T5">
-        <v>0.2621374000460326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2599963333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.7799889999999999</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1873846666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.562154</v>
-      </c>
-      <c r="O6">
-        <v>0.1845060645495855</v>
-      </c>
-      <c r="P6">
-        <v>0.2086890345764625</v>
-      </c>
-      <c r="Q6">
-        <v>0.04871932625622222</v>
-      </c>
-      <c r="R6">
-        <v>0.438473936306</v>
-      </c>
-      <c r="S6">
-        <v>0.1845060645495855</v>
-      </c>
-      <c r="T6">
-        <v>0.2086890345764625</v>
+        <v>0.1298271353781638</v>
       </c>
     </row>
   </sheetData>
